--- a/biology/Médecine/Petit_tubercule_de_l'humérus/Petit_tubercule_de_l'humérus.xlsx
+++ b/biology/Médecine/Petit_tubercule_de_l'humérus/Petit_tubercule_de_l'humérus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Petit_tubercule_de_l%27hum%C3%A9rus</t>
+          <t>Petit_tubercule_de_l'humérus</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le petit tubercule de l'humérus (ou trochin ou petite tubérosité de l'humérus) est une saillie sur la face antérieure de l'humérus en dedans du grand tubercule de l'humérus.
 Il donne insertion au muscle subscapulaire.
